--- a/Final Project_QA.xlsx
+++ b/Final Project_QA.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\multicampus\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\multicampus\final\webmobile-final\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="143">
   <si>
     <t>기대 결과</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -339,10 +339,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>header에 유저 아이디와 등급이 노출</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>유저가 회원가입 폼을 작성한 후 제출한 경우</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -456,10 +452,6 @@
   </si>
   <si>
     <t>모든 페이지 內 우측 하단의 +버튼 hover 후, 챗봇 아이콘 클릭 하는 경우</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>우측 하단에 챗본 창이 modal로 노출되며 자유롭게 내용 작성 가능</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -545,10 +537,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>간단한 환영 메시지를 modal창을 통해 노출</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Post나 Portfolio 쿠키 허용한타 유저가 글을 작성하는 경우</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -590,6 +578,56 @@
   </si>
   <si>
     <t>In Progress</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>toggle로 구분/ 변경 가능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유저 아이디와 등급은 관리자만 확인 가능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이콘 =&gt; combo box</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>리스트 페이지 노출은 하지 않기로 변경</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>버튼 노출, 클릭 시 '권한이 없습니다'라는 문구 alert</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>미노출 =&gt; 노출
+권한은 없음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>재확인 문구 대신 '삭제되었습니다'라는 문구를 modal창으로 보여줌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>재확인 문구 대신 '삭제되었습니다'라는 문구를 modal창으로 보여줌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>쿠키를 허용하시겠습니까?' 알림창 주소창 아래 노출</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>우측 하단에 챗본 창이 modal로 노출되며 자유롭게 내용 작성 가능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그인 한 유저의 console창에서 확인 가능하고, notification으로 변경 중에 있음.
+알림 기록에서 이전 내역 확인 가능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>console창에서 확인 가능하고, notification으로 변경 중에 있음.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -802,7 +840,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -842,14 +880,17 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -860,6 +901,18 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -878,38 +931,26 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1204,7 +1245,7 @@
   <dimension ref="A1:O33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1235,28 +1276,28 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="29" t="s">
+      <c r="F1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
       <c r="I1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="30" t="s">
+      <c r="J1" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="31"/>
-      <c r="L1" s="32"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="15"/>
     </row>
     <row r="2" spans="1:15" ht="51.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="C2" s="26" t="s">
+      <c r="C2" s="21" t="s">
         <v>7</v>
       </c>
       <c r="D2" s="5" t="s">
@@ -1265,79 +1306,79 @@
       <c r="E2" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="F2" s="25" t="s">
-        <v>106</v>
-      </c>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="J2" s="33"/>
-      <c r="K2" s="34"/>
-      <c r="L2" s="35"/>
+      <c r="F2" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="J2" s="30"/>
+      <c r="K2" s="31"/>
+      <c r="L2" s="32"/>
       <c r="N2" s="10" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="61.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="20"/>
-      <c r="B3" s="27"/>
-      <c r="C3" s="27"/>
+      <c r="A3" s="25"/>
+      <c r="B3" s="22"/>
+      <c r="C3" s="22"/>
       <c r="D3" s="6" t="s">
         <v>32</v>
       </c>
       <c r="E3" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="F3" s="25" t="s">
-        <v>105</v>
-      </c>
-      <c r="G3" s="25"/>
-      <c r="H3" s="25"/>
-      <c r="I3" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="J3" s="13"/>
-      <c r="K3" s="14"/>
-      <c r="L3" s="15"/>
+      <c r="F3" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="J3" s="33"/>
+      <c r="K3" s="34"/>
+      <c r="L3" s="35"/>
       <c r="N3" s="9" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="21"/>
-      <c r="B4" s="28"/>
-      <c r="C4" s="28"/>
+      <c r="A4" s="26"/>
+      <c r="B4" s="23"/>
+      <c r="C4" s="23"/>
       <c r="D4" s="6" t="s">
         <v>9</v>
       </c>
       <c r="E4" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="F4" s="25" t="s">
-        <v>107</v>
-      </c>
-      <c r="G4" s="25"/>
-      <c r="H4" s="25"/>
-      <c r="I4" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="J4" s="13"/>
-      <c r="K4" s="14"/>
-      <c r="L4" s="15"/>
+      <c r="F4" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="G4" s="16"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="J4" s="33"/>
+      <c r="K4" s="34"/>
+      <c r="L4" s="35"/>
       <c r="N4" s="8" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="19" t="s">
+      <c r="A5" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="22" t="s">
+      <c r="B5" s="27" t="s">
         <v>57</v>
       </c>
-      <c r="C5" s="22" t="s">
+      <c r="C5" s="27" t="s">
         <v>11</v>
       </c>
       <c r="D5" s="7" t="s">
@@ -1346,688 +1387,784 @@
       <c r="E5" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="F5" s="25" t="s">
-        <v>108</v>
-      </c>
-      <c r="G5" s="25"/>
-      <c r="H5" s="25"/>
-      <c r="I5" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="J5" s="13"/>
-      <c r="K5" s="14"/>
-      <c r="L5" s="15"/>
+      <c r="F5" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="J5" s="33"/>
+      <c r="K5" s="34"/>
+      <c r="L5" s="35"/>
       <c r="N5" s="12" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="O5" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="6" spans="1:15" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="20"/>
-      <c r="B6" s="23"/>
-      <c r="C6" s="23"/>
+      <c r="A6" s="25"/>
+      <c r="B6" s="28"/>
+      <c r="C6" s="28"/>
       <c r="D6" s="7" t="s">
         <v>13</v>
       </c>
       <c r="E6" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="F6" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="F6" s="25" t="s">
-        <v>75</v>
-      </c>
-      <c r="G6" s="25"/>
-      <c r="H6" s="25"/>
-      <c r="I6" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="J6" s="13"/>
-      <c r="K6" s="14"/>
-      <c r="L6" s="15"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="16"/>
+      <c r="I6" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="J6" s="33"/>
+      <c r="K6" s="34"/>
+      <c r="L6" s="35"/>
     </row>
     <row r="7" spans="1:15" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="20"/>
-      <c r="B7" s="23"/>
-      <c r="C7" s="23"/>
+      <c r="A7" s="25"/>
+      <c r="B7" s="28"/>
+      <c r="C7" s="28"/>
       <c r="D7" s="7" t="s">
         <v>14</v>
       </c>
       <c r="E7" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="F7" s="25" t="s">
-        <v>73</v>
-      </c>
-      <c r="G7" s="25"/>
-      <c r="H7" s="25"/>
-      <c r="I7" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="J7" s="13"/>
-      <c r="K7" s="14"/>
-      <c r="L7" s="15"/>
+      <c r="F7" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="G7" s="16"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="J7" s="33"/>
+      <c r="K7" s="34"/>
+      <c r="L7" s="35"/>
     </row>
     <row r="8" spans="1:15" ht="61.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="21"/>
-      <c r="B8" s="24"/>
-      <c r="C8" s="24"/>
+      <c r="A8" s="26"/>
+      <c r="B8" s="29"/>
+      <c r="C8" s="29"/>
       <c r="D8" s="7" t="s">
         <v>15</v>
       </c>
       <c r="E8" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="F8" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="F8" s="25" t="s">
-        <v>80</v>
-      </c>
-      <c r="G8" s="25"/>
-      <c r="H8" s="25"/>
-      <c r="I8" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="J8" s="13"/>
-      <c r="K8" s="14"/>
-      <c r="L8" s="15"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="J8" s="33" t="s">
+        <v>131</v>
+      </c>
+      <c r="K8" s="34"/>
+      <c r="L8" s="35"/>
     </row>
     <row r="9" spans="1:15" ht="54.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="19" t="s">
+      <c r="A9" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="22" t="s">
+      <c r="B9" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="C9" s="22" t="s">
+      <c r="C9" s="27" t="s">
         <v>17</v>
       </c>
       <c r="D9" s="7" t="s">
         <v>18</v>
       </c>
       <c r="E9" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="F9" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="F9" s="25" t="s">
-        <v>78</v>
-      </c>
-      <c r="G9" s="25"/>
-      <c r="H9" s="25"/>
-      <c r="I9" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="J9" s="13"/>
-      <c r="K9" s="14"/>
-      <c r="L9" s="15"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="16"/>
+      <c r="I9" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="J9" s="33"/>
+      <c r="K9" s="34"/>
+      <c r="L9" s="35"/>
     </row>
     <row r="10" spans="1:15" ht="53.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="20"/>
-      <c r="B10" s="23"/>
-      <c r="C10" s="23"/>
+      <c r="A10" s="25"/>
+      <c r="B10" s="28"/>
+      <c r="C10" s="28"/>
       <c r="D10" s="7" t="s">
         <v>19</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="F10" s="25" t="s">
-        <v>81</v>
-      </c>
-      <c r="G10" s="25"/>
-      <c r="H10" s="25"/>
-      <c r="I10" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="J10" s="13"/>
-      <c r="K10" s="14"/>
-      <c r="L10" s="15"/>
+        <v>75</v>
+      </c>
+      <c r="F10" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="G10" s="16"/>
+      <c r="H10" s="16"/>
+      <c r="I10" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="J10" s="33" t="s">
+        <v>133</v>
+      </c>
+      <c r="K10" s="34"/>
+      <c r="L10" s="35"/>
     </row>
     <row r="11" spans="1:15" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="20"/>
-      <c r="B11" s="24"/>
-      <c r="C11" s="23"/>
+      <c r="A11" s="25"/>
+      <c r="B11" s="29"/>
+      <c r="C11" s="28"/>
       <c r="D11" s="7" t="s">
         <v>20</v>
       </c>
       <c r="E11" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="F11" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="F11" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="G11" s="17"/>
-      <c r="H11" s="18"/>
-      <c r="I11" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="J11" s="13"/>
-      <c r="K11" s="14"/>
-      <c r="L11" s="15"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="19"/>
+      <c r="I11" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="J11" s="33"/>
+      <c r="K11" s="34"/>
+      <c r="L11" s="35"/>
     </row>
     <row r="12" spans="1:15" ht="54" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="20"/>
+      <c r="A12" s="25"/>
       <c r="B12" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C12" s="23"/>
+      <c r="C12" s="28"/>
       <c r="D12" s="7" t="s">
         <v>21</v>
       </c>
       <c r="E12" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="F12" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="F12" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="G12" s="17"/>
-      <c r="H12" s="18"/>
-      <c r="I12" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="J12" s="13"/>
-      <c r="K12" s="14"/>
-      <c r="L12" s="15"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="19"/>
+      <c r="I12" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="J12" s="33" t="s">
+        <v>134</v>
+      </c>
+      <c r="K12" s="34"/>
+      <c r="L12" s="35"/>
     </row>
     <row r="13" spans="1:15" ht="75.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="21"/>
+      <c r="A13" s="26"/>
       <c r="B13" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="C13" s="24"/>
+      <c r="C13" s="29"/>
       <c r="D13" s="7" t="s">
         <v>55</v>
       </c>
       <c r="E13" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="F13" s="17" t="s">
         <v>86</v>
       </c>
-      <c r="F13" s="16" t="s">
-        <v>87</v>
-      </c>
-      <c r="G13" s="17"/>
-      <c r="H13" s="18"/>
-      <c r="I13" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="J13" s="13"/>
-      <c r="K13" s="14"/>
-      <c r="L13" s="15"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="19"/>
+      <c r="I13" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="J13" s="33"/>
+      <c r="K13" s="34"/>
+      <c r="L13" s="35"/>
     </row>
     <row r="14" spans="1:15" ht="71.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="19" t="s">
+      <c r="A14" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="22" t="s">
+      <c r="B14" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="C14" s="22" t="s">
+      <c r="C14" s="27" t="s">
         <v>23</v>
       </c>
       <c r="D14" s="7" t="s">
         <v>27</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="F14" s="16" t="s">
-        <v>94</v>
-      </c>
-      <c r="G14" s="17"/>
-      <c r="H14" s="18"/>
-      <c r="I14" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="J14" s="13"/>
-      <c r="K14" s="14"/>
-      <c r="L14" s="15"/>
+        <v>91</v>
+      </c>
+      <c r="F14" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="G14" s="18"/>
+      <c r="H14" s="19"/>
+      <c r="I14" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="J14" s="33"/>
+      <c r="K14" s="34"/>
+      <c r="L14" s="35"/>
     </row>
     <row r="15" spans="1:15" ht="84.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="20"/>
-      <c r="B15" s="23"/>
-      <c r="C15" s="23"/>
+      <c r="A15" s="25"/>
+      <c r="B15" s="28"/>
+      <c r="C15" s="28"/>
       <c r="D15" s="7" t="s">
         <v>28</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="F15" s="16" t="s">
-        <v>90</v>
-      </c>
-      <c r="G15" s="17"/>
-      <c r="H15" s="18"/>
-      <c r="I15" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="J15" s="13"/>
-      <c r="K15" s="14"/>
-      <c r="L15" s="15"/>
+        <v>87</v>
+      </c>
+      <c r="F15" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="G15" s="18"/>
+      <c r="H15" s="19"/>
+      <c r="I15" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="J15" s="33" t="s">
+        <v>135</v>
+      </c>
+      <c r="K15" s="34"/>
+      <c r="L15" s="35"/>
     </row>
     <row r="16" spans="1:15" ht="80.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="20"/>
-      <c r="B16" s="24"/>
-      <c r="C16" s="23"/>
+      <c r="A16" s="25"/>
+      <c r="B16" s="29"/>
+      <c r="C16" s="28"/>
       <c r="D16" s="7" t="s">
         <v>29</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="F16" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="G16" s="17"/>
-      <c r="H16" s="18"/>
-      <c r="I16" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="J16" s="13"/>
-      <c r="K16" s="14"/>
-      <c r="L16" s="15"/>
+        <v>97</v>
+      </c>
+      <c r="F16" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="G16" s="18"/>
+      <c r="H16" s="19"/>
+      <c r="I16" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="J16" s="33"/>
+      <c r="K16" s="34"/>
+      <c r="L16" s="35"/>
     </row>
     <row r="17" spans="1:12" ht="155.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="20"/>
-      <c r="B17" s="22" t="s">
+      <c r="A17" s="25"/>
+      <c r="B17" s="27" t="s">
         <v>62</v>
       </c>
-      <c r="C17" s="23"/>
+      <c r="C17" s="28"/>
       <c r="D17" s="7" t="s">
         <v>30</v>
       </c>
       <c r="E17" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="F17" s="17" t="s">
         <v>109</v>
       </c>
-      <c r="F17" s="16" t="s">
-        <v>111</v>
-      </c>
-      <c r="G17" s="17"/>
-      <c r="H17" s="18"/>
-      <c r="I17" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="J17" s="13"/>
-      <c r="K17" s="14"/>
-      <c r="L17" s="15"/>
+      <c r="G17" s="18"/>
+      <c r="H17" s="19"/>
+      <c r="I17" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="J17" s="33"/>
+      <c r="K17" s="34"/>
+      <c r="L17" s="35"/>
     </row>
     <row r="18" spans="1:12" ht="124.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="20"/>
-      <c r="B18" s="23"/>
-      <c r="C18" s="23"/>
+      <c r="A18" s="25"/>
+      <c r="B18" s="28"/>
+      <c r="C18" s="28"/>
       <c r="D18" s="7" t="s">
         <v>36</v>
       </c>
       <c r="E18" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="F18" s="17" t="s">
         <v>113</v>
       </c>
-      <c r="F18" s="16" t="s">
-        <v>115</v>
-      </c>
-      <c r="G18" s="17"/>
-      <c r="H18" s="18"/>
-      <c r="I18" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="J18" s="13"/>
-      <c r="K18" s="14"/>
-      <c r="L18" s="15"/>
+      <c r="G18" s="18"/>
+      <c r="H18" s="19"/>
+      <c r="I18" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="J18" s="33" t="s">
+        <v>137</v>
+      </c>
+      <c r="K18" s="34"/>
+      <c r="L18" s="35"/>
     </row>
     <row r="19" spans="1:12" ht="65.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="21"/>
-      <c r="B19" s="24"/>
-      <c r="C19" s="24"/>
+      <c r="A19" s="26"/>
+      <c r="B19" s="29"/>
+      <c r="C19" s="29"/>
       <c r="D19" s="7" t="s">
         <v>24</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>120</v>
-      </c>
-      <c r="F19" s="16" t="s">
         <v>118</v>
       </c>
-      <c r="G19" s="17"/>
-      <c r="H19" s="18"/>
-      <c r="I19" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="J19" s="13"/>
-      <c r="K19" s="14"/>
-      <c r="L19" s="15"/>
+      <c r="F19" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="G19" s="18"/>
+      <c r="H19" s="19"/>
+      <c r="I19" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="J19" s="33" t="s">
+        <v>136</v>
+      </c>
+      <c r="K19" s="34"/>
+      <c r="L19" s="35"/>
     </row>
     <row r="20" spans="1:12" ht="69" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="19" t="s">
+      <c r="A20" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="B20" s="22" t="s">
+      <c r="B20" s="27" t="s">
         <v>63</v>
       </c>
-      <c r="C20" s="22" t="s">
+      <c r="C20" s="27" t="s">
         <v>26</v>
       </c>
       <c r="D20" s="7" t="s">
         <v>33</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="F20" s="16" t="s">
-        <v>95</v>
-      </c>
-      <c r="G20" s="17"/>
-      <c r="H20" s="18"/>
-      <c r="I20" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="J20" s="13"/>
-      <c r="K20" s="14"/>
-      <c r="L20" s="15"/>
+        <v>92</v>
+      </c>
+      <c r="F20" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="G20" s="18"/>
+      <c r="H20" s="19"/>
+      <c r="I20" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="J20" s="33"/>
+      <c r="K20" s="34"/>
+      <c r="L20" s="35"/>
     </row>
     <row r="21" spans="1:12" ht="93" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="20"/>
-      <c r="B21" s="23"/>
-      <c r="C21" s="23"/>
+      <c r="A21" s="25"/>
+      <c r="B21" s="28"/>
+      <c r="C21" s="28"/>
       <c r="D21" s="7" t="s">
         <v>34</v>
       </c>
       <c r="E21" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="F21" s="16" t="s">
-        <v>91</v>
-      </c>
-      <c r="G21" s="17"/>
-      <c r="H21" s="18"/>
-      <c r="I21" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="J21" s="13"/>
-      <c r="K21" s="14"/>
-      <c r="L21" s="15"/>
+        <v>88</v>
+      </c>
+      <c r="F21" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="G21" s="18"/>
+      <c r="H21" s="19"/>
+      <c r="I21" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="J21" s="33"/>
+      <c r="K21" s="34"/>
+      <c r="L21" s="35"/>
     </row>
     <row r="22" spans="1:12" ht="69.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="20"/>
-      <c r="B22" s="24"/>
-      <c r="C22" s="23"/>
+      <c r="A22" s="25"/>
+      <c r="B22" s="29"/>
+      <c r="C22" s="28"/>
       <c r="D22" s="7" t="s">
         <v>35</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="F22" s="16" t="s">
-        <v>97</v>
-      </c>
-      <c r="G22" s="17"/>
-      <c r="H22" s="18"/>
-      <c r="I22" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="J22" s="13"/>
-      <c r="K22" s="14"/>
-      <c r="L22" s="15"/>
+        <v>98</v>
+      </c>
+      <c r="F22" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="G22" s="18"/>
+      <c r="H22" s="19"/>
+      <c r="I22" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="J22" s="33"/>
+      <c r="K22" s="34"/>
+      <c r="L22" s="35"/>
     </row>
     <row r="23" spans="1:12" ht="106.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="20"/>
-      <c r="B23" s="22" t="s">
+      <c r="A23" s="25"/>
+      <c r="B23" s="27" t="s">
         <v>64</v>
       </c>
-      <c r="C23" s="23"/>
+      <c r="C23" s="28"/>
       <c r="D23" s="7" t="s">
         <v>38</v>
       </c>
       <c r="E23" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="F23" s="17" t="s">
         <v>110</v>
       </c>
-      <c r="F23" s="16" t="s">
-        <v>112</v>
-      </c>
-      <c r="G23" s="17"/>
-      <c r="H23" s="18"/>
-      <c r="I23" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="J23" s="13"/>
-      <c r="K23" s="14"/>
-      <c r="L23" s="15"/>
+      <c r="G23" s="18"/>
+      <c r="H23" s="19"/>
+      <c r="I23" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="J23" s="33"/>
+      <c r="K23" s="34"/>
+      <c r="L23" s="35"/>
     </row>
     <row r="24" spans="1:12" ht="120.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="20"/>
-      <c r="B24" s="23"/>
-      <c r="C24" s="23"/>
+      <c r="A24" s="25"/>
+      <c r="B24" s="28"/>
+      <c r="C24" s="28"/>
       <c r="D24" s="7" t="s">
         <v>37</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="F24" s="16" t="s">
         <v>114</v>
       </c>
-      <c r="G24" s="17"/>
-      <c r="H24" s="18"/>
-      <c r="I24" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="J24" s="13"/>
-      <c r="K24" s="14"/>
-      <c r="L24" s="15"/>
+      <c r="F24" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="G24" s="18"/>
+      <c r="H24" s="19"/>
+      <c r="I24" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="J24" s="33" t="s">
+        <v>138</v>
+      </c>
+      <c r="K24" s="34"/>
+      <c r="L24" s="35"/>
     </row>
     <row r="25" spans="1:12" ht="70.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="21"/>
-      <c r="B25" s="24"/>
-      <c r="C25" s="24"/>
+      <c r="A25" s="26"/>
+      <c r="B25" s="29"/>
+      <c r="C25" s="29"/>
       <c r="D25" s="7" t="s">
         <v>24</v>
       </c>
       <c r="E25" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="F25" s="17" t="s">
         <v>117</v>
       </c>
-      <c r="F25" s="16" t="s">
-        <v>119</v>
-      </c>
-      <c r="G25" s="17"/>
-      <c r="H25" s="18"/>
-      <c r="I25" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="J25" s="13"/>
-      <c r="K25" s="14"/>
-      <c r="L25" s="15"/>
+      <c r="G25" s="18"/>
+      <c r="H25" s="19"/>
+      <c r="I25" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="J25" s="33" t="s">
+        <v>136</v>
+      </c>
+      <c r="K25" s="34"/>
+      <c r="L25" s="35"/>
     </row>
     <row r="26" spans="1:12" ht="55.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="19" t="s">
+      <c r="A26" s="24" t="s">
         <v>40</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C26" s="22" t="s">
+      <c r="C26" s="27" t="s">
         <v>41</v>
       </c>
       <c r="D26" s="7" t="s">
         <v>42</v>
       </c>
       <c r="E26" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="F26" s="16" t="s">
-        <v>122</v>
-      </c>
-      <c r="G26" s="17"/>
-      <c r="H26" s="18"/>
-      <c r="I26" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="J26" s="13"/>
-      <c r="K26" s="14"/>
-      <c r="L26" s="15"/>
+        <v>119</v>
+      </c>
+      <c r="F26" s="36" t="s">
+        <v>139</v>
+      </c>
+      <c r="G26" s="18"/>
+      <c r="H26" s="19"/>
+      <c r="I26" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="J26" s="33"/>
+      <c r="K26" s="34"/>
+      <c r="L26" s="35"/>
     </row>
     <row r="27" spans="1:12" ht="55.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="20"/>
-      <c r="B27" s="22" t="s">
+      <c r="A27" s="25"/>
+      <c r="B27" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="C27" s="23"/>
+      <c r="C27" s="28"/>
       <c r="D27" s="7" t="s">
         <v>43</v>
       </c>
       <c r="E27" s="11" t="s">
-        <v>123</v>
-      </c>
-      <c r="F27" s="16" t="s">
-        <v>124</v>
-      </c>
-      <c r="G27" s="17"/>
-      <c r="H27" s="18"/>
+        <v>120</v>
+      </c>
+      <c r="F27" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="G27" s="18"/>
+      <c r="H27" s="19"/>
       <c r="I27" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="J27" s="13"/>
-      <c r="K27" s="14"/>
-      <c r="L27" s="15"/>
+        <v>99</v>
+      </c>
+      <c r="J27" s="33" t="s">
+        <v>141</v>
+      </c>
+      <c r="K27" s="34"/>
+      <c r="L27" s="35"/>
     </row>
     <row r="28" spans="1:12" ht="55.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="21"/>
-      <c r="B28" s="24"/>
-      <c r="C28" s="24"/>
+      <c r="A28" s="26"/>
+      <c r="B28" s="29"/>
+      <c r="C28" s="29"/>
       <c r="D28" s="7" t="s">
         <v>44</v>
       </c>
       <c r="E28" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="F28" s="16" t="s">
-        <v>126</v>
-      </c>
-      <c r="G28" s="17"/>
-      <c r="H28" s="18"/>
+        <v>122</v>
+      </c>
+      <c r="F28" s="17" t="s">
+        <v>123</v>
+      </c>
+      <c r="G28" s="18"/>
+      <c r="H28" s="19"/>
       <c r="I28" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="J28" s="13"/>
-      <c r="K28" s="14"/>
-      <c r="L28" s="15"/>
+        <v>99</v>
+      </c>
+      <c r="J28" s="33" t="s">
+        <v>142</v>
+      </c>
+      <c r="K28" s="34"/>
+      <c r="L28" s="35"/>
     </row>
     <row r="29" spans="1:12" ht="55.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="19" t="s">
+      <c r="A29" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="B29" s="22" t="s">
+      <c r="B29" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="C29" s="22" t="s">
+      <c r="C29" s="27" t="s">
         <v>46</v>
       </c>
       <c r="D29" s="7" t="s">
         <v>47</v>
       </c>
       <c r="E29" s="11" t="s">
-        <v>128</v>
-      </c>
-      <c r="F29" s="16" t="s">
-        <v>127</v>
-      </c>
-      <c r="G29" s="17"/>
-      <c r="H29" s="18"/>
+        <v>125</v>
+      </c>
+      <c r="F29" s="17" t="s">
+        <v>124</v>
+      </c>
+      <c r="G29" s="18"/>
+      <c r="H29" s="19"/>
       <c r="I29" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="J29" s="13"/>
-      <c r="K29" s="14"/>
-      <c r="L29" s="15"/>
+        <v>99</v>
+      </c>
+      <c r="J29" s="33"/>
+      <c r="K29" s="34"/>
+      <c r="L29" s="35"/>
     </row>
     <row r="30" spans="1:12" ht="55.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="20"/>
-      <c r="B30" s="23"/>
-      <c r="C30" s="23"/>
+      <c r="A30" s="25"/>
+      <c r="B30" s="28"/>
+      <c r="C30" s="28"/>
       <c r="D30" s="7" t="s">
         <v>48</v>
       </c>
       <c r="E30" s="11" t="s">
-        <v>129</v>
-      </c>
-      <c r="F30" s="16" t="s">
-        <v>130</v>
-      </c>
-      <c r="G30" s="17"/>
-      <c r="H30" s="18"/>
+        <v>126</v>
+      </c>
+      <c r="F30" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="G30" s="18"/>
+      <c r="H30" s="19"/>
       <c r="I30" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="J30" s="13"/>
-      <c r="K30" s="14"/>
-      <c r="L30" s="15"/>
+        <v>99</v>
+      </c>
+      <c r="J30" s="33"/>
+      <c r="K30" s="34"/>
+      <c r="L30" s="35"/>
     </row>
     <row r="31" spans="1:12" ht="83.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="21"/>
-      <c r="B31" s="24"/>
-      <c r="C31" s="24"/>
+      <c r="A31" s="26"/>
+      <c r="B31" s="29"/>
+      <c r="C31" s="29"/>
       <c r="D31" s="7" t="s">
         <v>49</v>
       </c>
       <c r="E31" s="11" t="s">
-        <v>132</v>
-      </c>
-      <c r="F31" s="16" t="s">
-        <v>131</v>
-      </c>
-      <c r="G31" s="17"/>
-      <c r="H31" s="18"/>
+        <v>129</v>
+      </c>
+      <c r="F31" s="17" t="s">
+        <v>128</v>
+      </c>
+      <c r="G31" s="18"/>
+      <c r="H31" s="19"/>
       <c r="I31" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="J31" s="13"/>
-      <c r="K31" s="14"/>
-      <c r="L31" s="15"/>
+        <v>99</v>
+      </c>
+      <c r="J31" s="33"/>
+      <c r="K31" s="34"/>
+      <c r="L31" s="35"/>
     </row>
     <row r="32" spans="1:12" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="19" t="s">
+      <c r="A32" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="B32" s="22" t="s">
+      <c r="B32" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="C32" s="22" t="s">
+      <c r="C32" s="27" t="s">
         <v>51</v>
       </c>
       <c r="D32" s="7" t="s">
         <v>52</v>
       </c>
       <c r="E32" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="F32" s="16" t="s">
-        <v>102</v>
-      </c>
-      <c r="G32" s="17"/>
-      <c r="H32" s="18"/>
-      <c r="I32" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="J32" s="13"/>
-      <c r="K32" s="14"/>
-      <c r="L32" s="15"/>
+      <c r="F32" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="G32" s="18"/>
+      <c r="H32" s="19"/>
+      <c r="I32" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="J32" s="33"/>
+      <c r="K32" s="34"/>
+      <c r="L32" s="35"/>
     </row>
     <row r="33" spans="1:12" ht="70.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="21"/>
-      <c r="B33" s="24"/>
-      <c r="C33" s="24"/>
+      <c r="A33" s="26"/>
+      <c r="B33" s="29"/>
+      <c r="C33" s="29"/>
       <c r="D33" s="7" t="s">
         <v>53</v>
       </c>
       <c r="E33" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="F33" s="25" t="s">
-        <v>104</v>
-      </c>
-      <c r="G33" s="25"/>
-      <c r="H33" s="25"/>
-      <c r="I33" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="J33" s="13"/>
-      <c r="K33" s="14"/>
-      <c r="L33" s="15"/>
+        <v>101</v>
+      </c>
+      <c r="F33" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="G33" s="16"/>
+      <c r="H33" s="16"/>
+      <c r="I33" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="J33" s="33"/>
+      <c r="K33" s="34"/>
+      <c r="L33" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="92">
+    <mergeCell ref="J31:L31"/>
+    <mergeCell ref="J32:L32"/>
+    <mergeCell ref="F32:H32"/>
+    <mergeCell ref="J11:L11"/>
+    <mergeCell ref="J12:L12"/>
+    <mergeCell ref="J13:L13"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="J15:L15"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="J17:L17"/>
+    <mergeCell ref="J18:L18"/>
+    <mergeCell ref="J19:L19"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="J21:L21"/>
+    <mergeCell ref="J22:L22"/>
+    <mergeCell ref="J23:L23"/>
+    <mergeCell ref="J24:L24"/>
+    <mergeCell ref="J25:L25"/>
+    <mergeCell ref="F27:H27"/>
+    <mergeCell ref="F28:H28"/>
+    <mergeCell ref="F29:H29"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="F23:H23"/>
+    <mergeCell ref="F24:H24"/>
+    <mergeCell ref="F25:H25"/>
+    <mergeCell ref="F26:H26"/>
+    <mergeCell ref="A26:A28"/>
+    <mergeCell ref="C26:C28"/>
+    <mergeCell ref="A29:A31"/>
+    <mergeCell ref="C29:C31"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="B29:B31"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="A9:A13"/>
+    <mergeCell ref="C9:C13"/>
+    <mergeCell ref="A14:A19"/>
+    <mergeCell ref="C14:C19"/>
+    <mergeCell ref="A20:A25"/>
+    <mergeCell ref="C20:C25"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="B20:B22"/>
+    <mergeCell ref="B23:B25"/>
+    <mergeCell ref="F6:H6"/>
+    <mergeCell ref="C2:C4"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="A5:A8"/>
+    <mergeCell ref="C5:C8"/>
+    <mergeCell ref="B5:B8"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="F33:H33"/>
+    <mergeCell ref="F11:H11"/>
+    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="F30:H30"/>
+    <mergeCell ref="F31:H31"/>
     <mergeCell ref="J8:L8"/>
     <mergeCell ref="J9:L9"/>
     <mergeCell ref="J10:L10"/>
@@ -2044,82 +2181,6 @@
     <mergeCell ref="J28:L28"/>
     <mergeCell ref="J29:L29"/>
     <mergeCell ref="J30:L30"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="F33:H33"/>
-    <mergeCell ref="F11:H11"/>
-    <mergeCell ref="F12:H12"/>
-    <mergeCell ref="F13:H13"/>
-    <mergeCell ref="F14:H14"/>
-    <mergeCell ref="F15:H15"/>
-    <mergeCell ref="F16:H16"/>
-    <mergeCell ref="F17:H17"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="F4:H4"/>
-    <mergeCell ref="F5:H5"/>
-    <mergeCell ref="F6:H6"/>
-    <mergeCell ref="C2:C4"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="A5:A8"/>
-    <mergeCell ref="C5:C8"/>
-    <mergeCell ref="B5:B8"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="F7:H7"/>
-    <mergeCell ref="F8:H8"/>
-    <mergeCell ref="A9:A13"/>
-    <mergeCell ref="C9:C13"/>
-    <mergeCell ref="A14:A19"/>
-    <mergeCell ref="C14:C19"/>
-    <mergeCell ref="A20:A25"/>
-    <mergeCell ref="C20:C25"/>
-    <mergeCell ref="B14:B16"/>
-    <mergeCell ref="B17:B19"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="B20:B22"/>
-    <mergeCell ref="B23:B25"/>
-    <mergeCell ref="A26:A28"/>
-    <mergeCell ref="C26:C28"/>
-    <mergeCell ref="A29:A31"/>
-    <mergeCell ref="C29:C31"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="B29:B31"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="F30:H30"/>
-    <mergeCell ref="F31:H31"/>
-    <mergeCell ref="F22:H22"/>
-    <mergeCell ref="F23:H23"/>
-    <mergeCell ref="F24:H24"/>
-    <mergeCell ref="F25:H25"/>
-    <mergeCell ref="F26:H26"/>
-    <mergeCell ref="J24:L24"/>
-    <mergeCell ref="J25:L25"/>
-    <mergeCell ref="F27:H27"/>
-    <mergeCell ref="F28:H28"/>
-    <mergeCell ref="F29:H29"/>
-    <mergeCell ref="J31:L31"/>
-    <mergeCell ref="J32:L32"/>
-    <mergeCell ref="F32:H32"/>
-    <mergeCell ref="J11:L11"/>
-    <mergeCell ref="J12:L12"/>
-    <mergeCell ref="J13:L13"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="J15:L15"/>
-    <mergeCell ref="J16:L16"/>
-    <mergeCell ref="J17:L17"/>
-    <mergeCell ref="J18:L18"/>
-    <mergeCell ref="J19:L19"/>
-    <mergeCell ref="J20:L20"/>
-    <mergeCell ref="J21:L21"/>
-    <mergeCell ref="J22:L22"/>
-    <mergeCell ref="J23:L23"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Final Project_QA.xlsx
+++ b/Final Project_QA.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\multicampus\final\webmobile-final\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\multicampus\last\webmobile-final\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="150">
   <si>
     <t>기대 결과</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -585,10 +585,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>유저 아이디와 등급은 관리자만 확인 가능</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>아이콘 =&gt; combo box</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -610,15 +606,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>재확인 문구 대신 '삭제되었습니다'라는 문구를 modal창으로 보여줌</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>쿠키를 허용하시겠습니까?' 알림창 주소창 아래 노출</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>우측 하단에 챗본 창이 modal로 노출되며 자유롭게 내용 작성 가능</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -628,6 +616,48 @@
   </si>
   <si>
     <t>console창에서 확인 가능하고, notification으로 변경 중에 있음.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pass</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유저 등급은 관리자만 확인 가능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6개 =&gt; 9개 변경</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>우측 하단에 챗본 창이 노출되며 자유롭게 내용 작성 가능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>새 글 작성 및 댓글 작성 알림메세지를 오프라인 환경에서 확인 가능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>재확인 문구 대신 '삭제되었습니다'라는 문구를 modal창으로 보여줌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원 등급 '다이아몬드(최고 등급)' 회원은 방문자 페이지 접근 가능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원 등급 '다이아몬드(최고 등급)' 회원은 유저 등급 변경 가능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>header의 관리자 페이지 버튼:
+관리자 外 =&gt; 미노출</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6개 =&gt; 5개 변경
+페이지네이션</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -880,6 +910,60 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -889,48 +973,6 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -939,18 +981,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1244,8 +1274,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="O22" sqref="O22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1276,28 +1306,28 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="20" t="s">
+      <c r="F1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
       <c r="I1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="13" t="s">
+      <c r="J1" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="14"/>
-      <c r="L1" s="15"/>
+      <c r="K1" s="32"/>
+      <c r="L1" s="33"/>
     </row>
     <row r="2" spans="1:15" ht="51.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="C2" s="21" t="s">
+      <c r="C2" s="27" t="s">
         <v>7</v>
       </c>
       <c r="D2" s="5" t="s">
@@ -1306,79 +1336,79 @@
       <c r="E2" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="F2" s="16" t="s">
+      <c r="F2" s="26" t="s">
         <v>104</v>
       </c>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
       <c r="I2" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="J2" s="30"/>
-      <c r="K2" s="31"/>
-      <c r="L2" s="32"/>
+      <c r="J2" s="34"/>
+      <c r="K2" s="35"/>
+      <c r="L2" s="36"/>
       <c r="N2" s="10" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="61.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="25"/>
-      <c r="B3" s="22"/>
-      <c r="C3" s="22"/>
+      <c r="A3" s="21"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
       <c r="D3" s="6" t="s">
         <v>32</v>
       </c>
       <c r="E3" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="F3" s="16" t="s">
+      <c r="F3" s="26" t="s">
         <v>103</v>
       </c>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="26"/>
       <c r="I3" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="J3" s="33"/>
-      <c r="K3" s="34"/>
-      <c r="L3" s="35"/>
+      <c r="J3" s="13"/>
+      <c r="K3" s="14"/>
+      <c r="L3" s="15"/>
       <c r="N3" s="9" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="26"/>
-      <c r="B4" s="23"/>
-      <c r="C4" s="23"/>
+      <c r="A4" s="22"/>
+      <c r="B4" s="29"/>
+      <c r="C4" s="29"/>
       <c r="D4" s="6" t="s">
         <v>9</v>
       </c>
       <c r="E4" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="F4" s="16" t="s">
+      <c r="F4" s="26" t="s">
         <v>105</v>
       </c>
-      <c r="G4" s="16"/>
-      <c r="H4" s="16"/>
+      <c r="G4" s="26"/>
+      <c r="H4" s="26"/>
       <c r="I4" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="J4" s="33"/>
-      <c r="K4" s="34"/>
-      <c r="L4" s="35"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="14"/>
+      <c r="L4" s="15"/>
       <c r="N4" s="8" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="24" t="s">
+      <c r="A5" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="27" t="s">
+      <c r="B5" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="C5" s="27" t="s">
+      <c r="C5" s="23" t="s">
         <v>11</v>
       </c>
       <c r="D5" s="7" t="s">
@@ -1387,17 +1417,19 @@
       <c r="E5" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="F5" s="16" t="s">
+      <c r="F5" s="26" t="s">
         <v>106</v>
       </c>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16"/>
+      <c r="G5" s="26"/>
+      <c r="H5" s="26"/>
       <c r="I5" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="J5" s="33"/>
-      <c r="K5" s="34"/>
-      <c r="L5" s="35"/>
+      <c r="J5" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="K5" s="14"/>
+      <c r="L5" s="15"/>
       <c r="N5" s="12" t="s">
         <v>99</v>
       </c>
@@ -1406,81 +1438,83 @@
       </c>
     </row>
     <row r="6" spans="1:15" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="25"/>
-      <c r="B6" s="28"/>
-      <c r="C6" s="28"/>
+      <c r="A6" s="21"/>
+      <c r="B6" s="24"/>
+      <c r="C6" s="24"/>
       <c r="D6" s="7" t="s">
         <v>13</v>
       </c>
       <c r="E6" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="F6" s="16" t="s">
+      <c r="F6" s="26" t="s">
         <v>74</v>
       </c>
-      <c r="G6" s="16"/>
-      <c r="H6" s="16"/>
+      <c r="G6" s="26"/>
+      <c r="H6" s="26"/>
       <c r="I6" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="J6" s="33"/>
-      <c r="K6" s="34"/>
-      <c r="L6" s="35"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="14"/>
+      <c r="L6" s="15"/>
     </row>
     <row r="7" spans="1:15" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="25"/>
-      <c r="B7" s="28"/>
-      <c r="C7" s="28"/>
+      <c r="A7" s="21"/>
+      <c r="B7" s="24"/>
+      <c r="C7" s="24"/>
       <c r="D7" s="7" t="s">
         <v>14</v>
       </c>
       <c r="E7" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="F7" s="16" t="s">
-        <v>132</v>
-      </c>
-      <c r="G7" s="16"/>
-      <c r="H7" s="16"/>
+      <c r="F7" s="26" t="s">
+        <v>141</v>
+      </c>
+      <c r="G7" s="26"/>
+      <c r="H7" s="26"/>
       <c r="I7" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="J7" s="33"/>
-      <c r="K7" s="34"/>
-      <c r="L7" s="35"/>
+      <c r="J7" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="K7" s="14"/>
+      <c r="L7" s="15"/>
     </row>
     <row r="8" spans="1:15" ht="61.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="26"/>
-      <c r="B8" s="29"/>
-      <c r="C8" s="29"/>
+      <c r="A8" s="22"/>
+      <c r="B8" s="25"/>
+      <c r="C8" s="25"/>
       <c r="D8" s="7" t="s">
         <v>15</v>
       </c>
       <c r="E8" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="F8" s="16" t="s">
+      <c r="F8" s="26" t="s">
         <v>79</v>
       </c>
-      <c r="G8" s="16"/>
-      <c r="H8" s="16"/>
+      <c r="G8" s="26"/>
+      <c r="H8" s="26"/>
       <c r="I8" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="J8" s="33" t="s">
+      <c r="J8" s="13" t="s">
         <v>131</v>
       </c>
-      <c r="K8" s="34"/>
-      <c r="L8" s="35"/>
+      <c r="K8" s="14"/>
+      <c r="L8" s="15"/>
     </row>
     <row r="9" spans="1:15" ht="54.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="24" t="s">
+      <c r="A9" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="27" t="s">
+      <c r="B9" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="C9" s="27" t="s">
+      <c r="C9" s="23" t="s">
         <v>17</v>
       </c>
       <c r="D9" s="7" t="s">
@@ -1489,122 +1523,124 @@
       <c r="E9" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="F9" s="16" t="s">
+      <c r="F9" s="26" t="s">
         <v>77</v>
       </c>
-      <c r="G9" s="16"/>
-      <c r="H9" s="16"/>
+      <c r="G9" s="26"/>
+      <c r="H9" s="26"/>
       <c r="I9" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="J9" s="33"/>
-      <c r="K9" s="34"/>
-      <c r="L9" s="35"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="14"/>
+      <c r="L9" s="15"/>
     </row>
     <row r="10" spans="1:15" ht="53.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="25"/>
-      <c r="B10" s="28"/>
-      <c r="C10" s="28"/>
+      <c r="A10" s="21"/>
+      <c r="B10" s="24"/>
+      <c r="C10" s="24"/>
       <c r="D10" s="7" t="s">
         <v>19</v>
       </c>
       <c r="E10" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="F10" s="16" t="s">
+      <c r="F10" s="26" t="s">
         <v>80</v>
       </c>
-      <c r="G10" s="16"/>
-      <c r="H10" s="16"/>
+      <c r="G10" s="26"/>
+      <c r="H10" s="26"/>
       <c r="I10" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="J10" s="33" t="s">
-        <v>133</v>
-      </c>
-      <c r="K10" s="34"/>
-      <c r="L10" s="35"/>
+      <c r="J10" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="K10" s="14"/>
+      <c r="L10" s="15"/>
     </row>
     <row r="11" spans="1:15" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="25"/>
-      <c r="B11" s="29"/>
-      <c r="C11" s="28"/>
+      <c r="A11" s="21"/>
+      <c r="B11" s="25"/>
+      <c r="C11" s="24"/>
       <c r="D11" s="7" t="s">
         <v>20</v>
       </c>
       <c r="E11" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="F11" s="17" t="s">
+      <c r="F11" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="G11" s="18"/>
-      <c r="H11" s="19"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="18"/>
       <c r="I11" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="J11" s="33"/>
-      <c r="K11" s="34"/>
-      <c r="L11" s="35"/>
+      <c r="J11" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="K11" s="14"/>
+      <c r="L11" s="15"/>
     </row>
     <row r="12" spans="1:15" ht="54" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="25"/>
+      <c r="A12" s="21"/>
       <c r="B12" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C12" s="28"/>
+      <c r="C12" s="24"/>
       <c r="D12" s="7" t="s">
         <v>21</v>
       </c>
       <c r="E12" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="F12" s="17" t="s">
+      <c r="F12" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="G12" s="18"/>
-      <c r="H12" s="19"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="18"/>
       <c r="I12" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="J12" s="33" t="s">
-        <v>134</v>
-      </c>
-      <c r="K12" s="34"/>
-      <c r="L12" s="35"/>
+      <c r="J12" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="K12" s="14"/>
+      <c r="L12" s="15"/>
     </row>
     <row r="13" spans="1:15" ht="75.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="26"/>
+      <c r="A13" s="22"/>
       <c r="B13" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="C13" s="29"/>
+      <c r="C13" s="25"/>
       <c r="D13" s="7" t="s">
         <v>55</v>
       </c>
       <c r="E13" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="F13" s="17" t="s">
+      <c r="F13" s="16" t="s">
         <v>86</v>
       </c>
-      <c r="G13" s="18"/>
-      <c r="H13" s="19"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="18"/>
       <c r="I13" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="J13" s="33"/>
-      <c r="K13" s="34"/>
-      <c r="L13" s="35"/>
+      <c r="J13" s="13"/>
+      <c r="K13" s="14"/>
+      <c r="L13" s="15"/>
     </row>
     <row r="14" spans="1:15" ht="71.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="24" t="s">
+      <c r="A14" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="27" t="s">
+      <c r="B14" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="C14" s="27" t="s">
+      <c r="C14" s="23" t="s">
         <v>23</v>
       </c>
       <c r="D14" s="7" t="s">
@@ -1613,144 +1649,146 @@
       <c r="E14" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="F14" s="17" t="s">
+      <c r="F14" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="G14" s="18"/>
-      <c r="H14" s="19"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="18"/>
       <c r="I14" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="J14" s="33"/>
-      <c r="K14" s="34"/>
-      <c r="L14" s="35"/>
+      <c r="J14" s="13"/>
+      <c r="K14" s="14"/>
+      <c r="L14" s="15"/>
     </row>
     <row r="15" spans="1:15" ht="84.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="25"/>
-      <c r="B15" s="28"/>
-      <c r="C15" s="28"/>
+      <c r="A15" s="21"/>
+      <c r="B15" s="24"/>
+      <c r="C15" s="24"/>
       <c r="D15" s="7" t="s">
         <v>28</v>
       </c>
       <c r="E15" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="F15" s="17" t="s">
+      <c r="F15" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="G15" s="18"/>
-      <c r="H15" s="19"/>
+      <c r="G15" s="17"/>
+      <c r="H15" s="18"/>
       <c r="I15" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="J15" s="33" t="s">
-        <v>135</v>
-      </c>
-      <c r="K15" s="34"/>
-      <c r="L15" s="35"/>
+      <c r="J15" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="K15" s="14"/>
+      <c r="L15" s="15"/>
     </row>
     <row r="16" spans="1:15" ht="80.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="25"/>
-      <c r="B16" s="29"/>
-      <c r="C16" s="28"/>
+      <c r="A16" s="21"/>
+      <c r="B16" s="25"/>
+      <c r="C16" s="24"/>
       <c r="D16" s="7" t="s">
         <v>29</v>
       </c>
       <c r="E16" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="F16" s="17" t="s">
+      <c r="F16" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="G16" s="18"/>
-      <c r="H16" s="19"/>
+      <c r="G16" s="17"/>
+      <c r="H16" s="18"/>
       <c r="I16" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="J16" s="33"/>
-      <c r="K16" s="34"/>
-      <c r="L16" s="35"/>
+      <c r="J16" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="K16" s="14"/>
+      <c r="L16" s="15"/>
     </row>
     <row r="17" spans="1:12" ht="155.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="25"/>
-      <c r="B17" s="27" t="s">
+      <c r="A17" s="21"/>
+      <c r="B17" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="C17" s="28"/>
+      <c r="C17" s="24"/>
       <c r="D17" s="7" t="s">
         <v>30</v>
       </c>
       <c r="E17" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="F17" s="17" t="s">
+      <c r="F17" s="16" t="s">
         <v>109</v>
       </c>
-      <c r="G17" s="18"/>
-      <c r="H17" s="19"/>
+      <c r="G17" s="17"/>
+      <c r="H17" s="18"/>
       <c r="I17" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="J17" s="33"/>
-      <c r="K17" s="34"/>
-      <c r="L17" s="35"/>
+      <c r="J17" s="13"/>
+      <c r="K17" s="14"/>
+      <c r="L17" s="15"/>
     </row>
     <row r="18" spans="1:12" ht="124.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="25"/>
-      <c r="B18" s="28"/>
-      <c r="C18" s="28"/>
+      <c r="A18" s="21"/>
+      <c r="B18" s="24"/>
+      <c r="C18" s="24"/>
       <c r="D18" s="7" t="s">
         <v>36</v>
       </c>
       <c r="E18" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="F18" s="17" t="s">
+      <c r="F18" s="16" t="s">
         <v>113</v>
       </c>
-      <c r="G18" s="18"/>
-      <c r="H18" s="19"/>
+      <c r="G18" s="17"/>
+      <c r="H18" s="18"/>
       <c r="I18" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="J18" s="33" t="s">
-        <v>137</v>
-      </c>
-      <c r="K18" s="34"/>
-      <c r="L18" s="35"/>
+      <c r="J18" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="K18" s="14"/>
+      <c r="L18" s="15"/>
     </row>
     <row r="19" spans="1:12" ht="65.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="26"/>
-      <c r="B19" s="29"/>
-      <c r="C19" s="29"/>
+      <c r="A19" s="22"/>
+      <c r="B19" s="25"/>
+      <c r="C19" s="25"/>
       <c r="D19" s="7" t="s">
         <v>24</v>
       </c>
       <c r="E19" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="F19" s="17" t="s">
+      <c r="F19" s="16" t="s">
         <v>116</v>
       </c>
-      <c r="G19" s="18"/>
-      <c r="H19" s="19"/>
+      <c r="G19" s="17"/>
+      <c r="H19" s="18"/>
       <c r="I19" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="J19" s="33" t="s">
-        <v>136</v>
-      </c>
-      <c r="K19" s="34"/>
-      <c r="L19" s="35"/>
+      <c r="J19" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="K19" s="14"/>
+      <c r="L19" s="15"/>
     </row>
     <row r="20" spans="1:12" ht="69" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="24" t="s">
+      <c r="A20" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="B20" s="27" t="s">
+      <c r="B20" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="C20" s="27" t="s">
+      <c r="C20" s="23" t="s">
         <v>26</v>
       </c>
       <c r="D20" s="7" t="s">
@@ -1759,142 +1797,144 @@
       <c r="E20" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="F20" s="17" t="s">
+      <c r="F20" s="16" t="s">
         <v>94</v>
       </c>
-      <c r="G20" s="18"/>
-      <c r="H20" s="19"/>
+      <c r="G20" s="17"/>
+      <c r="H20" s="18"/>
       <c r="I20" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="J20" s="33"/>
-      <c r="K20" s="34"/>
-      <c r="L20" s="35"/>
+      <c r="J20" s="13"/>
+      <c r="K20" s="14"/>
+      <c r="L20" s="15"/>
     </row>
     <row r="21" spans="1:12" ht="93" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="25"/>
-      <c r="B21" s="28"/>
-      <c r="C21" s="28"/>
+      <c r="A21" s="21"/>
+      <c r="B21" s="24"/>
+      <c r="C21" s="24"/>
       <c r="D21" s="7" t="s">
         <v>34</v>
       </c>
       <c r="E21" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="F21" s="17" t="s">
+      <c r="F21" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="G21" s="18"/>
-      <c r="H21" s="19"/>
+      <c r="G21" s="17"/>
+      <c r="H21" s="18"/>
       <c r="I21" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="J21" s="33"/>
-      <c r="K21" s="34"/>
-      <c r="L21" s="35"/>
+      <c r="J21" s="13"/>
+      <c r="K21" s="14"/>
+      <c r="L21" s="15"/>
     </row>
     <row r="22" spans="1:12" ht="69.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="25"/>
-      <c r="B22" s="29"/>
-      <c r="C22" s="28"/>
+      <c r="A22" s="21"/>
+      <c r="B22" s="25"/>
+      <c r="C22" s="24"/>
       <c r="D22" s="7" t="s">
         <v>35</v>
       </c>
       <c r="E22" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="F22" s="17" t="s">
+      <c r="F22" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="G22" s="18"/>
-      <c r="H22" s="19"/>
+      <c r="G22" s="17"/>
+      <c r="H22" s="18"/>
       <c r="I22" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="J22" s="33"/>
-      <c r="K22" s="34"/>
-      <c r="L22" s="35"/>
+      <c r="J22" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="K22" s="14"/>
+      <c r="L22" s="15"/>
     </row>
     <row r="23" spans="1:12" ht="106.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="25"/>
-      <c r="B23" s="27" t="s">
+      <c r="A23" s="21"/>
+      <c r="B23" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="C23" s="28"/>
+      <c r="C23" s="24"/>
       <c r="D23" s="7" t="s">
         <v>38</v>
       </c>
       <c r="E23" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="F23" s="17" t="s">
+      <c r="F23" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="G23" s="18"/>
-      <c r="H23" s="19"/>
+      <c r="G23" s="17"/>
+      <c r="H23" s="18"/>
       <c r="I23" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="J23" s="33"/>
-      <c r="K23" s="34"/>
-      <c r="L23" s="35"/>
+        <v>140</v>
+      </c>
+      <c r="J23" s="13"/>
+      <c r="K23" s="14"/>
+      <c r="L23" s="15"/>
     </row>
     <row r="24" spans="1:12" ht="120.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="25"/>
-      <c r="B24" s="28"/>
-      <c r="C24" s="28"/>
+      <c r="A24" s="21"/>
+      <c r="B24" s="24"/>
+      <c r="C24" s="24"/>
       <c r="D24" s="7" t="s">
         <v>37</v>
       </c>
       <c r="E24" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="F24" s="17" t="s">
+      <c r="F24" s="16" t="s">
         <v>112</v>
       </c>
-      <c r="G24" s="18"/>
-      <c r="H24" s="19"/>
+      <c r="G24" s="17"/>
+      <c r="H24" s="18"/>
       <c r="I24" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="J24" s="33" t="s">
-        <v>138</v>
-      </c>
-      <c r="K24" s="34"/>
-      <c r="L24" s="35"/>
+      <c r="J24" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="K24" s="14"/>
+      <c r="L24" s="15"/>
     </row>
     <row r="25" spans="1:12" ht="70.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="26"/>
-      <c r="B25" s="29"/>
-      <c r="C25" s="29"/>
+      <c r="A25" s="22"/>
+      <c r="B25" s="25"/>
+      <c r="C25" s="25"/>
       <c r="D25" s="7" t="s">
         <v>24</v>
       </c>
       <c r="E25" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="F25" s="17" t="s">
+      <c r="F25" s="16" t="s">
         <v>117</v>
       </c>
-      <c r="G25" s="18"/>
-      <c r="H25" s="19"/>
+      <c r="G25" s="17"/>
+      <c r="H25" s="18"/>
       <c r="I25" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="J25" s="33" t="s">
-        <v>136</v>
-      </c>
-      <c r="K25" s="34"/>
-      <c r="L25" s="35"/>
+      <c r="J25" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="K25" s="14"/>
+      <c r="L25" s="15"/>
     </row>
     <row r="26" spans="1:12" ht="55.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="24" t="s">
+      <c r="A26" s="20" t="s">
         <v>40</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C26" s="27" t="s">
+      <c r="C26" s="23" t="s">
         <v>41</v>
       </c>
       <c r="D26" s="7" t="s">
@@ -1903,76 +1943,76 @@
       <c r="E26" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="F26" s="36" t="s">
-        <v>139</v>
-      </c>
-      <c r="G26" s="18"/>
-      <c r="H26" s="19"/>
+      <c r="F26" s="19" t="s">
+        <v>137</v>
+      </c>
+      <c r="G26" s="17"/>
+      <c r="H26" s="18"/>
       <c r="I26" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="J26" s="33"/>
-      <c r="K26" s="34"/>
-      <c r="L26" s="35"/>
+      <c r="J26" s="13"/>
+      <c r="K26" s="14"/>
+      <c r="L26" s="15"/>
     </row>
     <row r="27" spans="1:12" ht="55.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="25"/>
-      <c r="B27" s="27" t="s">
+      <c r="A27" s="21"/>
+      <c r="B27" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="C27" s="28"/>
+      <c r="C27" s="24"/>
       <c r="D27" s="7" t="s">
         <v>43</v>
       </c>
       <c r="E27" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="F27" s="17" t="s">
+      <c r="F27" s="16" t="s">
         <v>121</v>
       </c>
-      <c r="G27" s="18"/>
-      <c r="H27" s="19"/>
-      <c r="I27" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="J27" s="33" t="s">
-        <v>141</v>
-      </c>
-      <c r="K27" s="34"/>
-      <c r="L27" s="35"/>
+      <c r="G27" s="17"/>
+      <c r="H27" s="18"/>
+      <c r="I27" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="J27" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="K27" s="14"/>
+      <c r="L27" s="15"/>
     </row>
     <row r="28" spans="1:12" ht="55.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="26"/>
-      <c r="B28" s="29"/>
-      <c r="C28" s="29"/>
+      <c r="A28" s="22"/>
+      <c r="B28" s="25"/>
+      <c r="C28" s="25"/>
       <c r="D28" s="7" t="s">
         <v>44</v>
       </c>
       <c r="E28" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="F28" s="17" t="s">
+      <c r="F28" s="16" t="s">
         <v>123</v>
       </c>
-      <c r="G28" s="18"/>
-      <c r="H28" s="19"/>
-      <c r="I28" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="J28" s="33" t="s">
-        <v>142</v>
-      </c>
-      <c r="K28" s="34"/>
-      <c r="L28" s="35"/>
+      <c r="G28" s="17"/>
+      <c r="H28" s="18"/>
+      <c r="I28" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="J28" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="K28" s="14"/>
+      <c r="L28" s="15"/>
     </row>
     <row r="29" spans="1:12" ht="55.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="24" t="s">
+      <c r="A29" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="B29" s="27" t="s">
+      <c r="B29" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="C29" s="27" t="s">
+      <c r="C29" s="23" t="s">
         <v>46</v>
       </c>
       <c r="D29" s="7" t="s">
@@ -1981,70 +2021,72 @@
       <c r="E29" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="F29" s="17" t="s">
+      <c r="F29" s="16" t="s">
         <v>124</v>
       </c>
-      <c r="G29" s="18"/>
-      <c r="H29" s="19"/>
-      <c r="I29" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="J29" s="33"/>
-      <c r="K29" s="34"/>
-      <c r="L29" s="35"/>
+      <c r="G29" s="17"/>
+      <c r="H29" s="18"/>
+      <c r="I29" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="J29" s="13"/>
+      <c r="K29" s="14"/>
+      <c r="L29" s="15"/>
     </row>
     <row r="30" spans="1:12" ht="55.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="25"/>
-      <c r="B30" s="28"/>
-      <c r="C30" s="28"/>
+      <c r="A30" s="21"/>
+      <c r="B30" s="24"/>
+      <c r="C30" s="24"/>
       <c r="D30" s="7" t="s">
         <v>48</v>
       </c>
       <c r="E30" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="F30" s="17" t="s">
+      <c r="F30" s="16" t="s">
         <v>127</v>
       </c>
-      <c r="G30" s="18"/>
-      <c r="H30" s="19"/>
-      <c r="I30" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="J30" s="33"/>
-      <c r="K30" s="34"/>
-      <c r="L30" s="35"/>
+      <c r="G30" s="17"/>
+      <c r="H30" s="18"/>
+      <c r="I30" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="J30" s="13"/>
+      <c r="K30" s="14"/>
+      <c r="L30" s="15"/>
     </row>
     <row r="31" spans="1:12" ht="83.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="26"/>
-      <c r="B31" s="29"/>
-      <c r="C31" s="29"/>
+      <c r="A31" s="22"/>
+      <c r="B31" s="25"/>
+      <c r="C31" s="25"/>
       <c r="D31" s="7" t="s">
         <v>49</v>
       </c>
       <c r="E31" s="11" t="s">
         <v>129</v>
       </c>
-      <c r="F31" s="17" t="s">
+      <c r="F31" s="16" t="s">
         <v>128</v>
       </c>
-      <c r="G31" s="18"/>
-      <c r="H31" s="19"/>
-      <c r="I31" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="J31" s="33"/>
-      <c r="K31" s="34"/>
-      <c r="L31" s="35"/>
+      <c r="G31" s="17"/>
+      <c r="H31" s="18"/>
+      <c r="I31" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="J31" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="K31" s="14"/>
+      <c r="L31" s="15"/>
     </row>
     <row r="32" spans="1:12" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="24" t="s">
+      <c r="A32" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="B32" s="27" t="s">
+      <c r="B32" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="C32" s="27" t="s">
+      <c r="C32" s="23" t="s">
         <v>51</v>
       </c>
       <c r="D32" s="7" t="s">
@@ -2053,42 +2095,118 @@
       <c r="E32" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="F32" s="17" t="s">
-        <v>140</v>
-      </c>
-      <c r="G32" s="18"/>
-      <c r="H32" s="19"/>
+      <c r="F32" s="16" t="s">
+        <v>143</v>
+      </c>
+      <c r="G32" s="17"/>
+      <c r="H32" s="18"/>
       <c r="I32" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="J32" s="33"/>
-      <c r="K32" s="34"/>
-      <c r="L32" s="35"/>
+      <c r="J32" s="13"/>
+      <c r="K32" s="14"/>
+      <c r="L32" s="15"/>
     </row>
     <row r="33" spans="1:12" ht="70.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="26"/>
-      <c r="B33" s="29"/>
-      <c r="C33" s="29"/>
+      <c r="A33" s="22"/>
+      <c r="B33" s="25"/>
+      <c r="C33" s="25"/>
       <c r="D33" s="7" t="s">
         <v>53</v>
       </c>
       <c r="E33" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="F33" s="16" t="s">
+      <c r="F33" s="26" t="s">
         <v>102</v>
       </c>
-      <c r="G33" s="16"/>
-      <c r="H33" s="16"/>
+      <c r="G33" s="26"/>
+      <c r="H33" s="26"/>
       <c r="I33" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="J33" s="33"/>
-      <c r="K33" s="34"/>
-      <c r="L33" s="35"/>
+      <c r="J33" s="13"/>
+      <c r="K33" s="14"/>
+      <c r="L33" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="92">
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="J9:L9"/>
+    <mergeCell ref="J10:L10"/>
+    <mergeCell ref="J33:L33"/>
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="J4:L4"/>
+    <mergeCell ref="J5:L5"/>
+    <mergeCell ref="J6:L6"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="J26:L26"/>
+    <mergeCell ref="J27:L27"/>
+    <mergeCell ref="J28:L28"/>
+    <mergeCell ref="J29:L29"/>
+    <mergeCell ref="J30:L30"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="F33:H33"/>
+    <mergeCell ref="F11:H11"/>
+    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="F30:H30"/>
+    <mergeCell ref="F31:H31"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="F6:H6"/>
+    <mergeCell ref="C2:C4"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="A5:A8"/>
+    <mergeCell ref="C5:C8"/>
+    <mergeCell ref="B5:B8"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="A9:A13"/>
+    <mergeCell ref="C9:C13"/>
+    <mergeCell ref="A14:A19"/>
+    <mergeCell ref="C14:C19"/>
+    <mergeCell ref="A20:A25"/>
+    <mergeCell ref="C20:C25"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="B20:B22"/>
+    <mergeCell ref="B23:B25"/>
+    <mergeCell ref="A26:A28"/>
+    <mergeCell ref="C26:C28"/>
+    <mergeCell ref="A29:A31"/>
+    <mergeCell ref="C29:C31"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="B29:B31"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="F23:H23"/>
+    <mergeCell ref="F24:H24"/>
+    <mergeCell ref="F25:H25"/>
+    <mergeCell ref="F26:H26"/>
+    <mergeCell ref="J24:L24"/>
+    <mergeCell ref="J25:L25"/>
+    <mergeCell ref="F27:H27"/>
+    <mergeCell ref="F28:H28"/>
+    <mergeCell ref="F29:H29"/>
     <mergeCell ref="J31:L31"/>
     <mergeCell ref="J32:L32"/>
     <mergeCell ref="F32:H32"/>
@@ -2105,82 +2223,6 @@
     <mergeCell ref="J21:L21"/>
     <mergeCell ref="J22:L22"/>
     <mergeCell ref="J23:L23"/>
-    <mergeCell ref="J24:L24"/>
-    <mergeCell ref="J25:L25"/>
-    <mergeCell ref="F27:H27"/>
-    <mergeCell ref="F28:H28"/>
-    <mergeCell ref="F29:H29"/>
-    <mergeCell ref="F22:H22"/>
-    <mergeCell ref="F23:H23"/>
-    <mergeCell ref="F24:H24"/>
-    <mergeCell ref="F25:H25"/>
-    <mergeCell ref="F26:H26"/>
-    <mergeCell ref="A26:A28"/>
-    <mergeCell ref="C26:C28"/>
-    <mergeCell ref="A29:A31"/>
-    <mergeCell ref="C29:C31"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="B29:B31"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="A9:A13"/>
-    <mergeCell ref="C9:C13"/>
-    <mergeCell ref="A14:A19"/>
-    <mergeCell ref="C14:C19"/>
-    <mergeCell ref="A20:A25"/>
-    <mergeCell ref="C20:C25"/>
-    <mergeCell ref="B14:B16"/>
-    <mergeCell ref="B17:B19"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="B20:B22"/>
-    <mergeCell ref="B23:B25"/>
-    <mergeCell ref="F6:H6"/>
-    <mergeCell ref="C2:C4"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="A5:A8"/>
-    <mergeCell ref="C5:C8"/>
-    <mergeCell ref="B5:B8"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="F7:H7"/>
-    <mergeCell ref="F8:H8"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="F4:H4"/>
-    <mergeCell ref="F5:H5"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="F33:H33"/>
-    <mergeCell ref="F11:H11"/>
-    <mergeCell ref="F12:H12"/>
-    <mergeCell ref="F13:H13"/>
-    <mergeCell ref="F14:H14"/>
-    <mergeCell ref="F15:H15"/>
-    <mergeCell ref="F16:H16"/>
-    <mergeCell ref="F17:H17"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="F30:H30"/>
-    <mergeCell ref="F31:H31"/>
-    <mergeCell ref="J8:L8"/>
-    <mergeCell ref="J9:L9"/>
-    <mergeCell ref="J10:L10"/>
-    <mergeCell ref="J33:L33"/>
-    <mergeCell ref="J1:L1"/>
-    <mergeCell ref="J2:L2"/>
-    <mergeCell ref="J3:L3"/>
-    <mergeCell ref="J4:L4"/>
-    <mergeCell ref="J5:L5"/>
-    <mergeCell ref="J6:L6"/>
-    <mergeCell ref="J7:L7"/>
-    <mergeCell ref="J26:L26"/>
-    <mergeCell ref="J27:L27"/>
-    <mergeCell ref="J28:L28"/>
-    <mergeCell ref="J29:L29"/>
-    <mergeCell ref="J30:L30"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
